--- a/Assets/BandColorConvention.xlsx
+++ b/Assets/BandColorConvention.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\TechnicalDocumentation\Assets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Dev\TechnicalDocumentation\Assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EC424A0-A264-4A2A-94F3-29026A5F9CE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DEBB256-C339-430C-BF86-766962F5567F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" xr2:uid="{976BA9A3-41FE-45E5-BC0B-B40312D9AF21}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{976BA9A3-41FE-45E5-BC0B-B40312D9AF21}"/>
   </bookViews>
   <sheets>
     <sheet name="Document Style" sheetId="4" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
   <si>
     <t>Chad</t>
   </si>
@@ -87,6 +87,42 @@
   </si>
   <si>
     <t>Magenta</t>
+  </si>
+  <si>
+    <t>Position</t>
+  </si>
+  <si>
+    <t>Abbreviated</t>
+  </si>
+  <si>
+    <t>Upstage Center</t>
+  </si>
+  <si>
+    <t>Stage Right</t>
+  </si>
+  <si>
+    <t>Stage Left</t>
+  </si>
+  <si>
+    <t>SR</t>
+  </si>
+  <si>
+    <t>SL</t>
+  </si>
+  <si>
+    <t>Center Stage Right</t>
+  </si>
+  <si>
+    <t>CSR</t>
+  </si>
+  <si>
+    <t>CSL</t>
+  </si>
+  <si>
+    <t>Center Stage Left</t>
+  </si>
+  <si>
+    <t>Drum</t>
   </si>
 </sst>
 </file>
@@ -220,9 +256,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -260,7 +296,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -366,7 +402,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -508,7 +544,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -516,18 +552,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D0FC92A-968B-4411-B6B8-D166D6F99331}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="385" zoomScaleNormal="385" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -535,10 +573,16 @@
         <v>6</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>8</v>
       </c>
@@ -546,51 +590,81 @@
         <v>0</v>
       </c>
       <c r="C2" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" s="6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
+    <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B6" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C6" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="5" t="s">
         <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/BandColorConvention.xlsx
+++ b/Assets/BandColorConvention.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Dev\TechnicalDocumentation\Assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DEBB256-C339-430C-BF86-766962F5567F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67D7839E-7813-4838-BBBB-A6E49DDFB8A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{976BA9A3-41FE-45E5-BC0B-B40312D9AF21}"/>
   </bookViews>
@@ -98,31 +98,31 @@
     <t>Upstage Center</t>
   </si>
   <si>
-    <t>Stage Right</t>
-  </si>
-  <si>
-    <t>Stage Left</t>
-  </si>
-  <si>
-    <t>SR</t>
-  </si>
-  <si>
-    <t>SL</t>
-  </si>
-  <si>
-    <t>Center Stage Right</t>
-  </si>
-  <si>
-    <t>CSR</t>
-  </si>
-  <si>
-    <t>CSL</t>
-  </si>
-  <si>
-    <t>Center Stage Left</t>
-  </si>
-  <si>
-    <t>Drum</t>
+    <t>DCR</t>
+  </si>
+  <si>
+    <t>DCL</t>
+  </si>
+  <si>
+    <t>Downstage Center Right</t>
+  </si>
+  <si>
+    <t>Downstage Center Left</t>
+  </si>
+  <si>
+    <t>Downstage Right</t>
+  </si>
+  <si>
+    <t>DSR</t>
+  </si>
+  <si>
+    <t>DSL</t>
+  </si>
+  <si>
+    <t>Downstage Left</t>
+  </si>
+  <si>
+    <t>USC</t>
   </si>
 </sst>
 </file>
@@ -555,12 +555,14 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="385" zoomScaleNormal="385" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18.5703125" bestFit="1" customWidth="1"/>
   </cols>
@@ -607,10 +609,10 @@
         <v>1</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>15</v>
@@ -624,10 +626,10 @@
         <v>2</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>13</v>
@@ -641,10 +643,10 @@
         <v>3</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>13</v>
@@ -658,10 +660,10 @@
         <v>4</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>14</v>
